--- a/2015年和2016年.xlsx
+++ b/2015年和2016年.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14820" tabRatio="697" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="697" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2015.11" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,109 @@
   </si>
   <si>
     <t>晚上第一食品商店吃老鸭粉丝汤+大虾生煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月4日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色外套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波司登女款羽绒服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃饭+来一份+馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员2015合订本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百联乐扣乐扣陶瓷碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大润发超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去苏州的火车票来回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月30日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州留园门票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭和买东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闵行杭州食为天吃生日餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果开发者账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗牙和买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿网订去西安的火车票来回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海长发购物中心有限</t>
+  </si>
+  <si>
+    <t>去哪儿网订西安格林豪泰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,8 +686,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -673,7 +804,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="113">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -716,6 +847,20 @@
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -758,6 +903,20 @@
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2002,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2201,14 +2360,143 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7">
+        <v>326.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2219,12 +2507,96 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>226.93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
